--- a/Datasets/xlsx/SYEP.xlsx
+++ b/Datasets/xlsx/SYEP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiesawyers/Desktop/NORTHEASTERN UNIVERSITY/PEAK/Code/Datasets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A754720-CCFF-3743-9297-C432611EC7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C46A7E6-181B-3747-B15B-B34270EF89A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1720" yWindow="500" windowWidth="27080" windowHeight="16940" xr2:uid="{D65EC953-470A-C448-A2F8-9ED7D4DA4D3B}"/>
   </bookViews>
@@ -5483,9 +5483,6 @@
     <t>tayflemm08@gmail.com</t>
   </si>
   <si>
-    <t>Boston Police Department - We Belong - Empowering Youth</t>
-  </si>
-  <si>
     <t>Daniel</t>
   </si>
   <si>
@@ -5649,6 +5646,9 @@
   </si>
   <si>
     <t>West End House Boys and Girls Club</t>
+  </si>
+  <si>
+    <t>Boston Police Department - We Belong</t>
   </si>
 </sst>
 </file>
@@ -6022,8 +6022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F0C5E1-62F9-194F-BB1D-AEF6D3A0C8CF}">
   <dimension ref="A1:BP440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="D431" sqref="D431"/>
+    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
+      <selection activeCell="A421" sqref="A421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -68530,7 +68530,7 @@
     </row>
     <row r="399" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>1815</v>
+        <v>1870</v>
       </c>
       <c r="B399" t="s">
         <v>1713</v>
@@ -68736,7 +68736,7 @@
     </row>
     <row r="400" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>1815</v>
+        <v>1870</v>
       </c>
       <c r="B400" t="s">
         <v>1717</v>
@@ -68942,7 +68942,7 @@
     </row>
     <row r="401" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>1815</v>
+        <v>1870</v>
       </c>
       <c r="B401" t="s">
         <v>1721</v>
@@ -69148,7 +69148,7 @@
     </row>
     <row r="402" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>1815</v>
+        <v>1870</v>
       </c>
       <c r="B402" t="s">
         <v>580</v>
@@ -69354,7 +69354,7 @@
     </row>
     <row r="403" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>1815</v>
+        <v>1870</v>
       </c>
       <c r="B403" t="s">
         <v>1727</v>
@@ -69560,7 +69560,7 @@
     </row>
     <row r="404" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>1815</v>
+        <v>1870</v>
       </c>
       <c r="B404" t="s">
         <v>1731</v>
@@ -69766,7 +69766,7 @@
     </row>
     <row r="405" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>1815</v>
+        <v>1870</v>
       </c>
       <c r="B405" t="s">
         <v>1734</v>
@@ -69972,7 +69972,7 @@
     </row>
     <row r="406" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>1815</v>
+        <v>1870</v>
       </c>
       <c r="B406" t="s">
         <v>1738</v>
@@ -70178,7 +70178,7 @@
     </row>
     <row r="407" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>1815</v>
+        <v>1870</v>
       </c>
       <c r="B407" t="s">
         <v>1741</v>
@@ -70384,7 +70384,7 @@
     </row>
     <row r="408" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>1815</v>
+        <v>1870</v>
       </c>
       <c r="B408" t="s">
         <v>1746</v>
@@ -70590,7 +70590,7 @@
     </row>
     <row r="409" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>1815</v>
+        <v>1870</v>
       </c>
       <c r="B409" t="s">
         <v>1750</v>
@@ -70796,7 +70796,7 @@
     </row>
     <row r="410" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>1815</v>
+        <v>1870</v>
       </c>
       <c r="B410" t="s">
         <v>1754</v>
@@ -71002,7 +71002,7 @@
     </row>
     <row r="411" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>1815</v>
+        <v>1870</v>
       </c>
       <c r="B411" t="s">
         <v>1757</v>
@@ -71208,7 +71208,7 @@
     </row>
     <row r="412" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>1815</v>
+        <v>1870</v>
       </c>
       <c r="B412" t="s">
         <v>1760</v>
@@ -71414,7 +71414,7 @@
     </row>
     <row r="413" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>1815</v>
+        <v>1870</v>
       </c>
       <c r="B413" t="s">
         <v>1764</v>
@@ -71620,7 +71620,7 @@
     </row>
     <row r="414" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>1815</v>
+        <v>1870</v>
       </c>
       <c r="B414" t="s">
         <v>1768</v>
@@ -71826,7 +71826,7 @@
     </row>
     <row r="415" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>1815</v>
+        <v>1870</v>
       </c>
       <c r="B415" t="s">
         <v>1771</v>
@@ -72032,7 +72032,7 @@
     </row>
     <row r="416" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>1815</v>
+        <v>1870</v>
       </c>
       <c r="B416" t="s">
         <v>1775</v>
@@ -72238,7 +72238,7 @@
     </row>
     <row r="417" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>1815</v>
+        <v>1870</v>
       </c>
       <c r="B417" t="s">
         <v>1780</v>
@@ -72444,7 +72444,7 @@
     </row>
     <row r="418" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>1815</v>
+        <v>1870</v>
       </c>
       <c r="B418" t="s">
         <v>1783</v>
@@ -72650,7 +72650,7 @@
     </row>
     <row r="419" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>1815</v>
+        <v>1870</v>
       </c>
       <c r="B419" t="s">
         <v>1786</v>
@@ -72856,7 +72856,7 @@
     </row>
     <row r="420" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>1815</v>
+        <v>1870</v>
       </c>
       <c r="B420" t="s">
         <v>883</v>
@@ -73062,7 +73062,7 @@
     </row>
     <row r="421" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>1815</v>
+        <v>1870</v>
       </c>
       <c r="B421" t="s">
         <v>1792</v>
@@ -73268,7 +73268,7 @@
     </row>
     <row r="422" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>1815</v>
+        <v>1870</v>
       </c>
       <c r="B422" t="s">
         <v>1796</v>
@@ -73474,7 +73474,7 @@
     </row>
     <row r="423" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>1815</v>
+        <v>1870</v>
       </c>
       <c r="B423" t="s">
         <v>1802</v>
@@ -73680,7 +73680,7 @@
     </row>
     <row r="424" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>1815</v>
+        <v>1870</v>
       </c>
       <c r="B424" t="s">
         <v>1805</v>
@@ -73886,7 +73886,7 @@
     </row>
     <row r="425" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>1815</v>
+        <v>1870</v>
       </c>
       <c r="B425" t="s">
         <v>1809</v>
@@ -74092,7 +74092,7 @@
     </row>
     <row r="426" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>1815</v>
+        <v>1870</v>
       </c>
       <c r="B426" t="s">
         <v>1346</v>
@@ -74298,16 +74298,16 @@
     </row>
     <row r="427" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B427" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C427" t="s">
         <v>1816</v>
       </c>
-      <c r="C427" t="s">
+      <c r="D427" t="s">
         <v>1817</v>
-      </c>
-      <c r="D427" t="s">
-        <v>1818</v>
       </c>
       <c r="E427" t="s">
         <v>10</v>
@@ -74364,7 +74364,7 @@
         <v>10</v>
       </c>
       <c r="W427" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="X427" t="s">
         <v>596</v>
@@ -74436,7 +74436,7 @@
         <v>65</v>
       </c>
       <c r="AU427" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="AV427" t="s">
         <v>21</v>
@@ -74504,16 +74504,16 @@
     </row>
     <row r="428" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B428" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C428" t="s">
         <v>1821</v>
       </c>
-      <c r="C428" t="s">
+      <c r="D428" t="s">
         <v>1822</v>
-      </c>
-      <c r="D428" t="s">
-        <v>1823</v>
       </c>
       <c r="E428" t="s">
         <v>3</v>
@@ -74710,16 +74710,16 @@
     </row>
     <row r="429" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B429" t="s">
         <v>1796</v>
       </c>
       <c r="C429" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D429" t="s">
         <v>1824</v>
-      </c>
-      <c r="D429" t="s">
-        <v>1825</v>
       </c>
       <c r="E429" t="s">
         <v>10</v>
@@ -74916,16 +74916,16 @@
     </row>
     <row r="430" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B430" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C430" t="s">
         <v>1826</v>
       </c>
-      <c r="C430" t="s">
+      <c r="D430" t="s">
         <v>1827</v>
-      </c>
-      <c r="D430" t="s">
-        <v>1828</v>
       </c>
       <c r="E430" t="s">
         <v>10</v>
@@ -74982,7 +74982,7 @@
         <v>10</v>
       </c>
       <c r="W430" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="X430" t="s">
         <v>36</v>
@@ -75122,16 +75122,16 @@
     </row>
     <row r="431" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B431" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C431" t="s">
         <v>1830</v>
       </c>
-      <c r="C431" t="s">
+      <c r="D431" t="s">
         <v>1831</v>
-      </c>
-      <c r="D431" t="s">
-        <v>1832</v>
       </c>
       <c r="E431" t="s">
         <v>10</v>
@@ -75328,16 +75328,16 @@
     </row>
     <row r="432" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B432" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C432" t="s">
         <v>1833</v>
       </c>
-      <c r="C432" t="s">
+      <c r="D432" t="s">
         <v>1834</v>
-      </c>
-      <c r="D432" t="s">
-        <v>1835</v>
       </c>
       <c r="E432" t="s">
         <v>10</v>
@@ -75394,7 +75394,7 @@
         <v>10</v>
       </c>
       <c r="W432" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="X432" t="s">
         <v>36</v>
@@ -75460,7 +75460,7 @@
         <v>16</v>
       </c>
       <c r="AS432" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="AT432" t="s">
         <v>65</v>
@@ -75534,16 +75534,16 @@
     </row>
     <row r="433" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B433" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C433" t="s">
         <v>1838</v>
       </c>
-      <c r="C433" t="s">
+      <c r="D433" t="s">
         <v>1839</v>
-      </c>
-      <c r="D433" t="s">
-        <v>1840</v>
       </c>
       <c r="E433" t="s">
         <v>10</v>
@@ -75600,7 +75600,7 @@
         <v>10</v>
       </c>
       <c r="W433" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="X433" t="s">
         <v>36</v>
@@ -75740,16 +75740,16 @@
     </row>
     <row r="434" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B434" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C434" t="s">
         <v>1842</v>
       </c>
-      <c r="C434" t="s">
+      <c r="D434" t="s">
         <v>1843</v>
-      </c>
-      <c r="D434" t="s">
-        <v>1844</v>
       </c>
       <c r="E434" t="s">
         <v>3</v>
@@ -75946,16 +75946,16 @@
     </row>
     <row r="435" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B435" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C435" t="s">
         <v>1845</v>
       </c>
-      <c r="C435" t="s">
+      <c r="D435" t="s">
         <v>1846</v>
-      </c>
-      <c r="D435" t="s">
-        <v>1847</v>
       </c>
       <c r="E435" t="s">
         <v>10</v>
@@ -76012,7 +76012,7 @@
         <v>10</v>
       </c>
       <c r="W435" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="X435" t="s">
         <v>36</v>
@@ -76152,16 +76152,16 @@
     </row>
     <row r="436" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B436" t="s">
         <v>887</v>
       </c>
       <c r="C436" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D436" t="s">
         <v>1849</v>
-      </c>
-      <c r="D436" t="s">
-        <v>1850</v>
       </c>
       <c r="E436" t="s">
         <v>10</v>
@@ -76218,7 +76218,7 @@
         <v>10</v>
       </c>
       <c r="W436" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="X436" t="s">
         <v>36</v>
@@ -76358,16 +76358,16 @@
     </row>
     <row r="437" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B437" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C437" t="s">
         <v>1852</v>
       </c>
-      <c r="C437" t="s">
+      <c r="D437" t="s">
         <v>1853</v>
-      </c>
-      <c r="D437" t="s">
-        <v>1854</v>
       </c>
       <c r="E437" t="s">
         <v>10</v>
@@ -76424,7 +76424,7 @@
         <v>10</v>
       </c>
       <c r="W437" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="X437" t="s">
         <v>13</v>
@@ -76564,16 +76564,16 @@
     </row>
     <row r="438" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B438" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C438" t="s">
         <v>1856</v>
       </c>
-      <c r="C438" t="s">
+      <c r="D438" t="s">
         <v>1857</v>
-      </c>
-      <c r="D438" t="s">
-        <v>1858</v>
       </c>
       <c r="E438" t="s">
         <v>10</v>
@@ -76630,7 +76630,7 @@
         <v>10</v>
       </c>
       <c r="W438" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="X438" t="s">
         <v>111</v>
@@ -76702,7 +76702,7 @@
         <v>76</v>
       </c>
       <c r="AU438" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="AV438" t="s">
         <v>21</v>
@@ -76770,16 +76770,16 @@
     </row>
     <row r="439" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B439" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C439" t="s">
         <v>1861</v>
       </c>
-      <c r="C439" t="s">
+      <c r="D439" t="s">
         <v>1862</v>
-      </c>
-      <c r="D439" t="s">
-        <v>1863</v>
       </c>
       <c r="E439" t="s">
         <v>10</v>
@@ -76836,7 +76836,7 @@
         <v>10</v>
       </c>
       <c r="W439" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="X439" t="s">
         <v>575</v>
@@ -76908,7 +76908,7 @@
         <v>65</v>
       </c>
       <c r="AU439" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="AV439" t="s">
         <v>21</v>
@@ -76976,16 +76976,16 @@
     </row>
     <row r="440" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B440" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C440" t="s">
         <v>1866</v>
       </c>
-      <c r="C440" t="s">
+      <c r="D440" t="s">
         <v>1867</v>
-      </c>
-      <c r="D440" t="s">
-        <v>1868</v>
       </c>
       <c r="E440" t="s">
         <v>10</v>
@@ -77042,7 +77042,7 @@
         <v>3</v>
       </c>
       <c r="W440" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="X440" t="s">
         <v>487</v>
